--- a/static/contact/U12G.xlsx
+++ b/static/contact/U12G.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A618DE7-41E5-447A-9263-C16E1D995002}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED062184-9771-43EE-BC07-401DDB0BDE99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U12G" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="79">
-  <si>
-    <t>Active Players</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -256,13 +253,25 @@
     <t>0404 069 524</t>
   </si>
   <si>
-    <t>Historical Players</t>
+    <t>Registered Players</t>
+  </si>
+  <si>
+    <t>Page, Shayla</t>
+  </si>
+  <si>
+    <t>Page, Colin</t>
+  </si>
+  <si>
+    <t>0408 080 446</t>
+  </si>
+  <si>
+    <t>colinp71@hotmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -755,6 +764,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -762,7 +772,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1117,12 +1126,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
@@ -1132,450 +1141,453 @@
     <col min="7" max="7" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="E18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B19" t="s">
         <v>66</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C19" t="s">
         <v>67</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D19" t="s">
         <v>68</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E19" t="s">
         <v>69</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F19" t="s">
         <v>70</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>71</v>
       </c>
-      <c r="G18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B20" t="s">
         <v>72</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C20" t="s">
         <v>73</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D20" t="s">
         <v>74</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E20" t="s">
         <v>75</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F20" t="s">
         <v>76</v>
       </c>
-      <c r="F19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="G20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/static/contact/U12G.xlsx
+++ b/static/contact/U12G.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED062184-9771-43EE-BC07-401DDB0BDE99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D67BF22-706B-4B44-9FFD-AFE23A45083C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U12G" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -266,6 +266,24 @@
   </si>
   <si>
     <t>colinp71@hotmail.com</t>
+  </si>
+  <si>
+    <t>McNiff, Ruby</t>
+  </si>
+  <si>
+    <t>McNiff, Paul</t>
+  </si>
+  <si>
+    <t>0413 148 703</t>
+  </si>
+  <si>
+    <t>acquiesce17@gmail.com</t>
+  </si>
+  <si>
+    <t>Cunningham, Jackie</t>
+  </si>
+  <si>
+    <t>0411 656 086</t>
   </si>
 </sst>
 </file>
@@ -1131,17 +1149,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="5" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
@@ -1156,7 +1174,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1179,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1202,7 +1220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1225,369 +1243,374 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>78</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>79</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>80</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>81</v>
       </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>40</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F12" t="s">
         <v>41</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E13" t="s">
         <v>46</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F13" t="s">
         <v>47</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>49</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>50</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>51</v>
       </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>52</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>53</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>54</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>55</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E15" t="s">
         <v>56</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>58</v>
       </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>59</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>60</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>61</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
         <v>62</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E17" t="s">
         <v>63</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F17" t="s">
         <v>61</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>71</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>72</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>73</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>74</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>75</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>76</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
+    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/static/contact/U12G.xlsx
+++ b/static/contact/U12G.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D67BF22-706B-4B44-9FFD-AFE23A45083C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D22C113-A2F6-4134-B811-D9EE519FA2D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U12G" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -214,9 +214,6 @@
     <t>Wood, James</t>
   </si>
   <si>
-    <t>Recent Players</t>
-  </si>
-  <si>
     <t>GauciFraser, Shaylee</t>
   </si>
   <si>
@@ -235,24 +232,6 @@
     <t>0478 660 172</t>
   </si>
   <si>
-    <t>Morgans, Zoe</t>
-  </si>
-  <si>
-    <t>Morgans, Ross</t>
-  </si>
-  <si>
-    <t>0407 299 922</t>
-  </si>
-  <si>
-    <t>ross_morgans@bigpond.com</t>
-  </si>
-  <si>
-    <t>Morgans, Amee</t>
-  </si>
-  <si>
-    <t>0404 069 524</t>
-  </si>
-  <si>
     <t>Registered Players</t>
   </si>
   <si>
@@ -284,6 +263,60 @@
   </si>
   <si>
     <t>0411 656 086</t>
+  </si>
+  <si>
+    <t>Benham, Maddison</t>
+  </si>
+  <si>
+    <t>Benham, Aaron</t>
+  </si>
+  <si>
+    <t>0413 958 844</t>
+  </si>
+  <si>
+    <t>aaronbenham11@hotmail.com</t>
+  </si>
+  <si>
+    <t>Benham, Deborah</t>
+  </si>
+  <si>
+    <t>0403 736 661</t>
+  </si>
+  <si>
+    <t>deb.niven@gmail.com</t>
+  </si>
+  <si>
+    <t>mattanz06@optusnet.com.au</t>
+  </si>
+  <si>
+    <t>craig@gwrlive.com</t>
+  </si>
+  <si>
+    <t>jackie.m.cunningham@gmail.com</t>
+  </si>
+  <si>
+    <t>0411 226 781</t>
+  </si>
+  <si>
+    <t>emilybirchwoodis@gmail.com</t>
+  </si>
+  <si>
+    <t>peterreilly72@bigpond.com</t>
+  </si>
+  <si>
+    <t>andrewcrobertson@gmail.com</t>
+  </si>
+  <si>
+    <t>Sullivan, Sienna</t>
+  </si>
+  <si>
+    <t>0430 393 449</t>
+  </si>
+  <si>
+    <t>stephanie.benham@hotmail.com</t>
+  </si>
+  <si>
+    <t>gavinwillcock@optusnet.com.au</t>
   </si>
 </sst>
 </file>
@@ -1145,23 +1178,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1174,7 +1207,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1197,202 +1230,202 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="G4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="G5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
         <v>65</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>66</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" t="s">
         <v>67</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" t="s">
         <v>68</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F6" t="s">
         <v>69</v>
       </c>
-      <c r="F5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>33</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>78</v>
-      </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
@@ -1401,216 +1434,197 @@
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>39</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>40</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>41</v>
       </c>
-      <c r="G12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="G13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>45</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>46</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>47</v>
       </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="G14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>48</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>51</v>
       </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>54</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
         <v>55</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E17" t="s">
         <v>56</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F17" t="s">
         <v>57</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>59</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>60</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>61</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D19" t="s">
         <v>62</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E19" t="s">
         <v>63</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F19" t="s">
         <v>61</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/static/contact/U12G.xlsx
+++ b/static/contact/U12G.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D22C113-A2F6-4134-B811-D9EE519FA2D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8834FFBB-1C49-47E0-9B03-45D0BA41BDF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U12G" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="107">
+  <si>
+    <t>Registered Players</t>
+  </si>
   <si>
     <t>Guardian 1</t>
   </si>
@@ -40,6 +43,27 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Benham, Maddison</t>
+  </si>
+  <si>
+    <t>Benham, Aaron</t>
+  </si>
+  <si>
+    <t>0413 958 844</t>
+  </si>
+  <si>
+    <t>aaronbenham11@hotmail.com</t>
+  </si>
+  <si>
+    <t>Benham, Deborah</t>
+  </si>
+  <si>
+    <t>0403 736 661</t>
+  </si>
+  <si>
+    <t>deb.niven@gmail.com</t>
+  </si>
+  <si>
     <t>Brady, Charlotte</t>
   </si>
   <si>
@@ -58,6 +82,24 @@
     <t>0410 621 359</t>
   </si>
   <si>
+    <t>mattanz06@optusnet.com.au</t>
+  </si>
+  <si>
+    <t>da Matta Kirk, Clara</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0426 255 287</t>
+  </si>
+  <si>
+    <t>juniakall@gmail.com</t>
+  </si>
+  <si>
+    <t>da Matta Kirk, Nina</t>
+  </si>
+  <si>
     <t>Ferguson, Emily</t>
   </si>
   <si>
@@ -76,6 +118,27 @@
     <t>0458 974 005</t>
   </si>
   <si>
+    <t>craig@gwrlive.com</t>
+  </si>
+  <si>
+    <t>GauciFraser, Shaylee</t>
+  </si>
+  <si>
+    <t>Fraser, Kim</t>
+  </si>
+  <si>
+    <t>0402 939 192</t>
+  </si>
+  <si>
+    <t>kynmii495@gmail.com</t>
+  </si>
+  <si>
+    <t>Gauci, Glen</t>
+  </si>
+  <si>
+    <t>0478 660 172</t>
+  </si>
+  <si>
     <t>Jolly, Ella</t>
   </si>
   <si>
@@ -88,9 +151,6 @@
     <t>renae.1980@hotmail.com</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Maniscalchi, Grace</t>
   </si>
   <si>
@@ -127,9 +187,48 @@
     <t>0488 149 080</t>
   </si>
   <si>
+    <t>McNiff, Ruby</t>
+  </si>
+  <si>
+    <t>McNiff, Paul</t>
+  </si>
+  <si>
+    <t>0413 148 703</t>
+  </si>
+  <si>
+    <t>acquiesce17@gmail.com</t>
+  </si>
+  <si>
+    <t>Cunningham, Jackie</t>
+  </si>
+  <si>
+    <t>0411 656 086</t>
+  </si>
+  <si>
+    <t>jackie.m.cunningham@gmail.com</t>
+  </si>
+  <si>
     <t>Mena, Raelene</t>
   </si>
   <si>
+    <t>0411 226 781</t>
+  </si>
+  <si>
+    <t>emilybirchwoodis@gmail.com</t>
+  </si>
+  <si>
+    <t>Page, Shayla</t>
+  </si>
+  <si>
+    <t>Page, Colin</t>
+  </si>
+  <si>
+    <t>0408 080 446</t>
+  </si>
+  <si>
+    <t>colinp71@hotmail.com</t>
+  </si>
+  <si>
     <t>Reilly, Ava</t>
   </si>
   <si>
@@ -148,6 +247,9 @@
     <t>0412 124 176</t>
   </si>
   <si>
+    <t>peterreilly72@bigpond.com</t>
+  </si>
+  <si>
     <t>Robertson, Charlie</t>
   </si>
   <si>
@@ -166,6 +268,9 @@
     <t>0425 807 059</t>
   </si>
   <si>
+    <t>andrewcrobertson@gmail.com</t>
+  </si>
+  <si>
     <t>Soderman, Skye</t>
   </si>
   <si>
@@ -178,6 +283,27 @@
     <t>mandymaggs9@gmail.com</t>
   </si>
   <si>
+    <t>Sullivan, Sienna</t>
+  </si>
+  <si>
+    <t>0430 393 449</t>
+  </si>
+  <si>
+    <t>stephanie.benham@hotmail.com</t>
+  </si>
+  <si>
+    <t>Treverton, Jade</t>
+  </si>
+  <si>
+    <t>McMahon, Marlene</t>
+  </si>
+  <si>
+    <t>0408 828 339</t>
+  </si>
+  <si>
+    <t>marlene.mcmahon68@gmail.com</t>
+  </si>
+  <si>
     <t>Willcock, Carly</t>
   </si>
   <si>
@@ -196,6 +322,9 @@
     <t>0411 567 153</t>
   </si>
   <si>
+    <t>gavinwillcock@optusnet.com.au</t>
+  </si>
+  <si>
     <t>Willcock, Jessica</t>
   </si>
   <si>
@@ -212,111 +341,6 @@
   </si>
   <si>
     <t>Wood, James</t>
-  </si>
-  <si>
-    <t>GauciFraser, Shaylee</t>
-  </si>
-  <si>
-    <t>Fraser, Kim</t>
-  </si>
-  <si>
-    <t>0402 939 192</t>
-  </si>
-  <si>
-    <t>kynmii495@gmail.com</t>
-  </si>
-  <si>
-    <t>Gauci, Glen</t>
-  </si>
-  <si>
-    <t>0478 660 172</t>
-  </si>
-  <si>
-    <t>Registered Players</t>
-  </si>
-  <si>
-    <t>Page, Shayla</t>
-  </si>
-  <si>
-    <t>Page, Colin</t>
-  </si>
-  <si>
-    <t>0408 080 446</t>
-  </si>
-  <si>
-    <t>colinp71@hotmail.com</t>
-  </si>
-  <si>
-    <t>McNiff, Ruby</t>
-  </si>
-  <si>
-    <t>McNiff, Paul</t>
-  </si>
-  <si>
-    <t>0413 148 703</t>
-  </si>
-  <si>
-    <t>acquiesce17@gmail.com</t>
-  </si>
-  <si>
-    <t>Cunningham, Jackie</t>
-  </si>
-  <si>
-    <t>0411 656 086</t>
-  </si>
-  <si>
-    <t>Benham, Maddison</t>
-  </si>
-  <si>
-    <t>Benham, Aaron</t>
-  </si>
-  <si>
-    <t>0413 958 844</t>
-  </si>
-  <si>
-    <t>aaronbenham11@hotmail.com</t>
-  </si>
-  <si>
-    <t>Benham, Deborah</t>
-  </si>
-  <si>
-    <t>0403 736 661</t>
-  </si>
-  <si>
-    <t>deb.niven@gmail.com</t>
-  </si>
-  <si>
-    <t>mattanz06@optusnet.com.au</t>
-  </si>
-  <si>
-    <t>craig@gwrlive.com</t>
-  </si>
-  <si>
-    <t>jackie.m.cunningham@gmail.com</t>
-  </si>
-  <si>
-    <t>0411 226 781</t>
-  </si>
-  <si>
-    <t>emilybirchwoodis@gmail.com</t>
-  </si>
-  <si>
-    <t>peterreilly72@bigpond.com</t>
-  </si>
-  <si>
-    <t>andrewcrobertson@gmail.com</t>
-  </si>
-  <si>
-    <t>Sullivan, Sienna</t>
-  </si>
-  <si>
-    <t>0430 393 449</t>
-  </si>
-  <si>
-    <t>stephanie.benham@hotmail.com</t>
-  </si>
-  <si>
-    <t>gavinwillcock@optusnet.com.au</t>
   </si>
 </sst>
 </file>
@@ -1178,9 +1202,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1194,431 +1220,500 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s">
         <v>81</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G16" t="s">
         <v>82</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>83</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B17" t="s">
         <v>84</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C17" t="s">
         <v>85</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D17" t="s">
         <v>86</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="D18" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B19" t="s">
         <v>91</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C19" t="s">
         <v>92</v>
       </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="D19" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B20" t="s">
         <v>95</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C20" t="s">
         <v>96</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D20" t="s">
         <v>97</v>
       </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="E20" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" t="s">
-        <v>62</v>
+      <c r="F20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/static/contact/U12G.xlsx
+++ b/static/contact/U12G.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8834FFBB-1C49-47E0-9B03-45D0BA41BDF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5F2B6A-CD91-42F6-81CE-E17D30E6FC25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="110">
   <si>
     <t>Registered Players</t>
   </si>
@@ -341,6 +341,15 @@
   </si>
   <si>
     <t>Wood, James</t>
+  </si>
+  <si>
+    <t>Kershaw, Leila</t>
+  </si>
+  <si>
+    <t>0432 556 992</t>
+  </si>
+  <si>
+    <t>kara.montoneri@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1202,11 +1211,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1419,22 +1426,22 @@
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
         <v>22</v>
@@ -1442,85 +1449,85 @@
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
@@ -1534,85 +1541,85 @@
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
@@ -1626,16 +1633,16 @@
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
@@ -1649,33 +1656,33 @@
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
         <v>96</v>
@@ -1684,35 +1691,58 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>102</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>104</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>105</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>106</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>104</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>105</v>
       </c>
     </row>

--- a/static/contact/U12G.xlsx
+++ b/static/contact/U12G.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\tykto\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5F2B6A-CD91-42F6-81CE-E17D30E6FC25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F68D775-9C02-4A1B-89A3-4726C0354F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
